--- a/Federated Electric Market/result_excel/test_loss/frac/frac=0.3.xlsx
+++ b/Federated Electric Market/result_excel/test_loss/frac/frac=0.3.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.311342048086165</v>
+        <v>5.100481786668942</v>
       </c>
       <c r="C2" t="n">
-        <v>1.157149980511856</v>
+        <v>1.832876811386511</v>
       </c>
       <c r="D2" t="n">
-        <v>1.520309852657071</v>
+        <v>2.25842462496957</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.00160881934469</v>
+        <v>3.969370965864529</v>
       </c>
       <c r="C3" t="n">
-        <v>1.032341234006755</v>
+        <v>1.625035833752508</v>
       </c>
       <c r="D3" t="n">
-        <v>1.41478225156548</v>
+        <v>1.992328026672447</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.426204472845097</v>
+        <v>1.466915729806308</v>
       </c>
       <c r="C4" t="n">
-        <v>1.31094180300505</v>
+        <v>0.9411335017912984</v>
       </c>
       <c r="D4" t="n">
-        <v>1.557627835153538</v>
+        <v>1.21116296583338</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7613699802741314</v>
+        <v>1.232674265788414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.685546179675149</v>
+        <v>0.8802402718782015</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8725651725081235</v>
+        <v>1.110258648148446</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.812756069315469</v>
+        <v>0.7543456052145843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7281641671739031</v>
+        <v>0.6744456886986664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9015298493757536</v>
+        <v>0.8685307163333857</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.640717612738137</v>
+        <v>1.229953025616389</v>
       </c>
       <c r="C7" t="n">
-        <v>1.071486987056126</v>
+        <v>0.8339885991230002</v>
       </c>
       <c r="D7" t="n">
-        <v>1.280904997545929</v>
+        <v>1.109032472751086</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.009567760073928</v>
+        <v>1.505346377715335</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7564708046718084</v>
+        <v>0.9251802023987606</v>
       </c>
       <c r="D8" t="n">
-        <v>1.004772491698458</v>
+        <v>1.226925579534201</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.20763689238005</v>
+        <v>1.16655472319879</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8847920862928184</v>
+        <v>0.8560481526358181</v>
       </c>
       <c r="D9" t="n">
-        <v>1.098925335216206</v>
+        <v>1.080071628735238</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.001155280055535</v>
+        <v>1.067676877577089</v>
       </c>
       <c r="C10" t="n">
-        <v>1.208367316647519</v>
+        <v>0.8161935440882663</v>
       </c>
       <c r="D10" t="n">
-        <v>1.414621956586118</v>
+        <v>1.033284509502145</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.630796695377262</v>
+        <v>0.6070082653437869</v>
       </c>
       <c r="C11" t="n">
-        <v>1.961147927590209</v>
+        <v>0.6252025666970639</v>
       </c>
       <c r="D11" t="n">
-        <v>2.151928599042557</v>
+        <v>0.7791073516170842</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.07213914837386</v>
+        <v>1.180890221047087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8125620667834468</v>
+        <v>0.8423836865430807</v>
       </c>
       <c r="D12" t="n">
-        <v>1.035441523396594</v>
+        <v>1.086687729316517</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.108100487143286</v>
+        <v>0.6916279616950582</v>
       </c>
       <c r="C13" t="n">
-        <v>1.269267825988715</v>
+        <v>0.6828513025756562</v>
       </c>
       <c r="D13" t="n">
-        <v>1.451929918123904</v>
+        <v>0.8316417267640305</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.198528026856288</v>
+        <v>0.9615048263352435</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9082180504023525</v>
+        <v>0.7469987273271084</v>
       </c>
       <c r="D14" t="n">
-        <v>1.094773048104623</v>
+        <v>0.9805635248851772</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.69067153463609</v>
+        <v>1.646481040251999</v>
       </c>
       <c r="C15" t="n">
-        <v>3.281112815032144</v>
+        <v>1.094683863704567</v>
       </c>
       <c r="D15" t="n">
-        <v>3.419162402495104</v>
+        <v>1.283152773543353</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8565456539671961</v>
+        <v>0.8419211579980738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7628563174809918</v>
+        <v>0.7139123791633267</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9254975169967751</v>
+        <v>0.917562618025644</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4001086685618608</v>
+        <v>0.5233669900637464</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5110112781124609</v>
+        <v>0.5731471665353549</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6325414362410267</v>
+        <v>0.723441075737165</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6643505254570395</v>
+        <v>1.43976627257199</v>
       </c>
       <c r="C18" t="n">
-        <v>0.642556772372144</v>
+        <v>0.9844291857813817</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8150770058448708</v>
+        <v>1.199902609619627</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.520905942654132</v>
+        <v>0.9402793872100121</v>
       </c>
       <c r="C19" t="n">
-        <v>1.003447421284903</v>
+        <v>0.7276019170948502</v>
       </c>
       <c r="D19" t="n">
-        <v>1.233250154126944</v>
+        <v>0.9696800437309269</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5026061981777812</v>
+        <v>0.7894683161267423</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5654243994438137</v>
+        <v>0.6923563924341702</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7089472463997453</v>
+        <v>0.8885202958440186</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8153927073338763</v>
+        <v>0.7953086538101952</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7307704920977016</v>
+        <v>0.6948521443416391</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9029909785451216</v>
+        <v>0.8918007926718809</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5773773600894091</v>
+        <v>0.8852672637373498</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6110153733750068</v>
+        <v>0.749413619117415</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7598535122570725</v>
+        <v>0.940886424462246</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3530404174049533</v>
+        <v>0.3913074137573827</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4763373731631515</v>
+        <v>0.4733403191579577</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5941720436077023</v>
+        <v>0.6255456927814168</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.075297926266505</v>
+        <v>0.7822848870068515</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8607508048825058</v>
+        <v>0.6819475804148861</v>
       </c>
       <c r="D24" t="n">
-        <v>1.036965730516928</v>
+        <v>0.8844687032376282</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8.059758166674508</v>
+        <v>0.8969673803714117</v>
       </c>
       <c r="C25" t="n">
-        <v>2.705193927551635</v>
+        <v>0.7880594204782564</v>
       </c>
       <c r="D25" t="n">
-        <v>2.838971321918294</v>
+        <v>0.9470836184685129</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.43714573316881</v>
+        <v>0.9826299686136156</v>
       </c>
       <c r="C26" t="n">
-        <v>1.655822622730647</v>
+        <v>0.7580814944297039</v>
       </c>
       <c r="D26" t="n">
-        <v>1.853954080652703</v>
+        <v>0.9912769384050129</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8671209984274602</v>
+        <v>1.406902328604304</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7385540130911509</v>
+        <v>0.9643655027260087</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9311933195784107</v>
+        <v>1.18612913656326</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.133090792405429</v>
+        <v>0.3779202845453387</v>
       </c>
       <c r="C28" t="n">
-        <v>2.383528811120662</v>
+        <v>0.5081523650730274</v>
       </c>
       <c r="D28" t="n">
-        <v>2.476507781616167</v>
+        <v>0.6147522139409818</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7814126010802576</v>
+        <v>0.8546298414580404</v>
       </c>
       <c r="C29" t="n">
-        <v>0.705679322401406</v>
+        <v>0.7161379191412909</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8839754527588747</v>
+        <v>0.9244619199610336</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7054209743434072</v>
+        <v>0.8850934284025171</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6663249130200861</v>
+        <v>0.7376724357297318</v>
       </c>
       <c r="D30" t="n">
-        <v>0.839893430348998</v>
+        <v>0.9407940414365501</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8859620487232959</v>
+        <v>1.260304588778731</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7536545709675465</v>
+        <v>0.8726881485157448</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9412555703544579</v>
+        <v>1.122632882459235</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.40626276703546</v>
+        <v>0.6465507661841289</v>
       </c>
       <c r="C32" t="n">
-        <v>2.334708899071634</v>
+        <v>0.6422007645565534</v>
       </c>
       <c r="D32" t="n">
-        <v>2.531059613489074</v>
+        <v>0.8040838054482436</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.50042751822139</v>
+        <v>0.8322806807782117</v>
       </c>
       <c r="C33" t="n">
-        <v>3.42284597237823</v>
+        <v>0.7463288788569108</v>
       </c>
       <c r="D33" t="n">
-        <v>3.535594365622475</v>
+        <v>0.9122941854348364</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.848773846934027</v>
+        <v>0.4171306826907951</v>
       </c>
       <c r="C34" t="n">
-        <v>2.058245181846048</v>
+        <v>0.4387673795502935</v>
       </c>
       <c r="D34" t="n">
-        <v>2.20199315324413</v>
+        <v>0.6458565496228982</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.04687377499628</v>
+        <v>2.868234153374484</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7863541853052891</v>
+        <v>1.444216669837528</v>
       </c>
       <c r="D35" t="n">
-        <v>1.023168497851786</v>
+        <v>1.693586181265802</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.109488751242681</v>
+        <v>1.741944889581646</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8538887000846835</v>
+        <v>1.093892920059711</v>
       </c>
       <c r="D36" t="n">
-        <v>1.053322719418261</v>
+        <v>1.31982759843157</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.411103586422641</v>
+        <v>0.6526003320427314</v>
       </c>
       <c r="C37" t="n">
-        <v>2.7639167193568</v>
+        <v>0.6336111690623081</v>
       </c>
       <c r="D37" t="n">
-        <v>2.900190267279483</v>
+        <v>0.8078368226583457</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.008718913815347</v>
+        <v>0.5114916086980846</v>
       </c>
       <c r="C38" t="n">
-        <v>2.268680448750399</v>
+        <v>0.528106140455094</v>
       </c>
       <c r="D38" t="n">
-        <v>2.451268837523813</v>
+        <v>0.7151864153478341</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.46678769383109</v>
+        <v>0.5005719097412138</v>
       </c>
       <c r="C39" t="n">
-        <v>1.671711326928364</v>
+        <v>0.5342970674733092</v>
       </c>
       <c r="D39" t="n">
-        <v>1.861931173226092</v>
+        <v>0.7075110668683662</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.577690449427082</v>
+        <v>1.878705886797197</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9965366292763861</v>
+        <v>1.102535238756987</v>
       </c>
       <c r="D40" t="n">
-        <v>1.256061483139691</v>
+        <v>1.370658924312389</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7962439358836166</v>
+        <v>0.4732553342590584</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7544646312690257</v>
+        <v>0.5366036207904175</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8923250169549303</v>
+        <v>0.6879355596704232</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.948858008943695</v>
+        <v>0.5594363303466995</v>
       </c>
       <c r="C42" t="n">
-        <v>1.549324246656142</v>
+        <v>0.5739482315110803</v>
       </c>
       <c r="D42" t="n">
-        <v>1.717223925102284</v>
+        <v>0.7479547649067418</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.084412634829768</v>
+        <v>1.696688210370687</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7389445529257586</v>
+        <v>0.9537046709421581</v>
       </c>
       <c r="D43" t="n">
-        <v>1.041351350327913</v>
+        <v>1.302569848557338</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4310138718211622</v>
+        <v>0.6250927799920984</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5104917893420632</v>
+        <v>0.6338380370475893</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6565164672886448</v>
+        <v>0.7906280920838181</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4069686522118386</v>
+        <v>0.6537965045115269</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5150642432047969</v>
+        <v>0.6373633218476209</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6379409472763435</v>
+        <v>0.8085768389655537</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.019246575080707</v>
+        <v>0.5185879281519611</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8784459686995232</v>
+        <v>0.5601894834086845</v>
       </c>
       <c r="D46" t="n">
-        <v>1.009577424014972</v>
+        <v>0.7201304938356389</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.510678194927849</v>
+        <v>0.6361924850179075</v>
       </c>
       <c r="C47" t="n">
-        <v>1.027937438586386</v>
+        <v>0.6460170475678508</v>
       </c>
       <c r="D47" t="n">
-        <v>1.229096495368793</v>
+        <v>0.7976167532204345</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2771686078023275</v>
+        <v>0.2897935572359538</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4234626362151757</v>
+        <v>0.3972681859596242</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5264680501249127</v>
+        <v>0.5383247692944788</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4497343604515098</v>
+        <v>0.5438206679123182</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5527251208993007</v>
+        <v>0.5718182559156594</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6706223679922328</v>
+        <v>0.7374419759630707</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5717072338433421</v>
+        <v>0.5394685101386859</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6151742049967521</v>
+        <v>0.5602389187406609</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7561132414151613</v>
+        <v>0.7344852007621977</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7483591071819992</v>
+        <v>0.3572355768605532</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7237135666543464</v>
+        <v>0.4612715459973524</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8650775151291352</v>
+        <v>0.5976918745144133</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4471333886024132</v>
+        <v>0.5310435098914481</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5375127830450819</v>
+        <v>0.556195806164038</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6686803336441212</v>
+        <v>0.7287273220426472</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9602169009597324</v>
+        <v>0.3830196352506958</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8447069680598314</v>
+        <v>0.471631173498781</v>
       </c>
       <c r="D53" t="n">
-        <v>0.979906577669388</v>
+        <v>0.6188858014615425</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.612462643212139</v>
+        <v>0.2365959716629111</v>
       </c>
       <c r="C54" t="n">
-        <v>1.12968328816515</v>
+        <v>0.3756781710689445</v>
       </c>
       <c r="D54" t="n">
-        <v>1.26982780061398</v>
+        <v>0.4864113194230898</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7875298094408204</v>
+        <v>0.6812712630378056</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7301863913999489</v>
+        <v>0.6443051784215151</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8874287630231625</v>
+        <v>0.8253915816373496</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4229608371525338</v>
+        <v>0.5596084978891553</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5170183614314452</v>
+        <v>0.5907383640514764</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6503543935059821</v>
+        <v>0.7480698482689671</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3401415233105618</v>
+        <v>0.3385852204909573</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4799607619122495</v>
+        <v>0.451213223314165</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5832165320964091</v>
+        <v>0.5818807614030191</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.374306184855089</v>
+        <v>0.3823752501182354</v>
       </c>
       <c r="C58" t="n">
-        <v>1.049683537760567</v>
+        <v>0.4927141661195742</v>
       </c>
       <c r="D58" t="n">
-        <v>1.17230805885445</v>
+        <v>0.6183649813162413</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8246855971016205</v>
+        <v>1.879285329358518</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6912936162064913</v>
+        <v>1.169693395348337</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9081220166374233</v>
+        <v>1.370870281740223</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7402714656101455</v>
+        <v>0.721449488987011</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7233435689243386</v>
+        <v>0.645868521244519</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8603902984170297</v>
+        <v>0.8493818275587317</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3453480103060059</v>
+        <v>0.5968382732828548</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4549857574287218</v>
+        <v>0.5887895543693685</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5876631775992145</v>
+        <v>0.7725530876793224</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9754330393135365</v>
+        <v>1.032511522824246</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8312814996810856</v>
+        <v>0.7708379141642451</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9876401365444484</v>
+        <v>1.016125741640397</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.239136264198105</v>
+        <v>0.514500385295998</v>
       </c>
       <c r="C63" t="n">
-        <v>2.92710707308035</v>
+        <v>0.5924099446015397</v>
       </c>
       <c r="D63" t="n">
-        <v>3.039594753285067</v>
+        <v>0.7172868221959734</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.3743813934383456</v>
+        <v>0.5851481424280486</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4739759175869295</v>
+        <v>0.5926237418826177</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6118671370798938</v>
+        <v>0.7649497646434363</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7179866416125779</v>
+        <v>0.8175881274372743</v>
       </c>
       <c r="C65" t="n">
-        <v>0.712038193592658</v>
+        <v>0.6886611635897469</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8473409240751788</v>
+        <v>0.9042057992720873</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4448583040594226</v>
+        <v>0.6198829078731296</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5348476689740566</v>
+        <v>0.6039484167984162</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6669769891528662</v>
+        <v>0.7873264303153614</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.547287309861281</v>
+        <v>0.745496179832649</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6050700300491428</v>
+        <v>0.6490656751904877</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7397886927098042</v>
+        <v>0.8634212064992666</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.185791720557319</v>
+        <v>1.954087135722926</v>
       </c>
       <c r="C68" t="n">
-        <v>0.854118782632352</v>
+        <v>1.081997192131781</v>
       </c>
       <c r="D68" t="n">
-        <v>1.088940641429696</v>
+        <v>1.39788666769625</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7051158317873001</v>
+        <v>1.341579364560824</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6395422517797458</v>
+        <v>0.9059193275588444</v>
       </c>
       <c r="D69" t="n">
-        <v>0.839711755179895</v>
+        <v>1.158265670975715</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8535683578915367</v>
+        <v>1.662104516515152</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6739873068269264</v>
+        <v>1.023770073301131</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9238876327192267</v>
+        <v>1.289226324783648</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6316531607009517</v>
+        <v>0.8553743385010335</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6176763640595718</v>
+        <v>0.7387878788097221</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7947661043986159</v>
+        <v>0.9248644973730117</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2449875259647828</v>
+        <v>0.4502949303182287</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3770274609458162</v>
+        <v>0.5511159399127906</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4949621459917746</v>
+        <v>0.6710401853229274</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4406671670297459</v>
+        <v>0.8143841265625521</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5454030218781031</v>
+        <v>0.7020036609329928</v>
       </c>
       <c r="D73" t="n">
-        <v>0.663827663652055</v>
+        <v>0.9024323390496111</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5671514655362561</v>
+        <v>0.8572715943730835</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6088960497289163</v>
+        <v>0.7495446878116513</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7530945926882333</v>
+        <v>0.9258896232127691</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.305129433959919</v>
+        <v>0.6065911093544339</v>
       </c>
       <c r="C75" t="n">
-        <v>2.155493490469415</v>
+        <v>0.6242278440388912</v>
       </c>
       <c r="D75" t="n">
-        <v>2.303286659093895</v>
+        <v>0.778839591542722</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.124133653586625</v>
+        <v>0.473201883485833</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9017148996928861</v>
+        <v>0.5506614633316014</v>
       </c>
       <c r="D76" t="n">
-        <v>1.06025169350802</v>
+        <v>0.6878967098960664</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.828772710370483</v>
+        <v>0.3634846769065218</v>
       </c>
       <c r="C77" t="n">
-        <v>1.192394865124353</v>
+        <v>0.4741157629470794</v>
       </c>
       <c r="D77" t="n">
-        <v>1.35232123046652</v>
+        <v>0.6028969040445653</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5120702470050609</v>
+        <v>0.7995180580569197</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5428300008421959</v>
+        <v>0.7144764635270442</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7155908377034049</v>
+        <v>0.8941577366756492</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.852417069589461</v>
+        <v>0.72078748862839</v>
       </c>
       <c r="C79" t="n">
-        <v>1.501960710251207</v>
+        <v>0.6570757635681114</v>
       </c>
       <c r="D79" t="n">
-        <v>1.688910024124868</v>
+        <v>0.8489920427356137</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3521950189067137</v>
+        <v>0.3808129482046952</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4888280296397701</v>
+        <v>0.4734265599066087</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5934602083600161</v>
+        <v>0.6171004360755996</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6137256828120307</v>
+        <v>0.815578414529688</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6122721514831316</v>
+        <v>0.678057530398733</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7834064607928828</v>
+        <v>0.9030938016228923</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.187236399934747</v>
+        <v>0.597614149501122</v>
       </c>
       <c r="C82" t="n">
-        <v>1.300774929840464</v>
+        <v>0.611767887233144</v>
       </c>
       <c r="D82" t="n">
-        <v>1.478930830003468</v>
+        <v>0.7730550753349479</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.074436671136292</v>
+        <v>0.5429714236173273</v>
       </c>
       <c r="C83" t="n">
-        <v>1.567965424151361</v>
+        <v>0.5985362317237093</v>
       </c>
       <c r="D83" t="n">
-        <v>1.753407160683534</v>
+        <v>0.7368659468433368</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.31512841504147</v>
+        <v>0.5289658798442409</v>
       </c>
       <c r="C84" t="n">
-        <v>3.112305037668395</v>
+        <v>0.608497336065484</v>
       </c>
       <c r="D84" t="n">
-        <v>3.211717362259866</v>
+        <v>0.7273004055025962</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.157359246628978</v>
+        <v>0.527104846623085</v>
       </c>
       <c r="C85" t="n">
-        <v>0.904996340900057</v>
+        <v>0.5862225297365308</v>
       </c>
       <c r="D85" t="n">
-        <v>1.075806323939852</v>
+        <v>0.7260198665484885</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6718335662527026</v>
+        <v>1.213840637891837</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6266384991398948</v>
+        <v>0.8315808155105238</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8196545407991727</v>
+        <v>1.101744361406872</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7.235390779409202</v>
+        <v>0.4533377091105608</v>
       </c>
       <c r="C87" t="n">
-        <v>2.570472393252369</v>
+        <v>0.532212674252621</v>
       </c>
       <c r="D87" t="n">
-        <v>2.689868171381118</v>
+        <v>0.6733035787150999</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.468104569462022</v>
+        <v>0.5815200321902361</v>
       </c>
       <c r="C88" t="n">
-        <v>2.181167321631273</v>
+        <v>0.6432569544885993</v>
       </c>
       <c r="D88" t="n">
-        <v>2.338397863808044</v>
+        <v>0.7625746076222549</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.6255473497170001</v>
+        <v>0.4643952047753989</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6571632722287949</v>
+        <v>0.5433616452267335</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7909155136403635</v>
+        <v>0.6814654831870789</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7383582561270962</v>
+        <v>0.5274739044755388</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7077346927767958</v>
+        <v>0.575192716308968</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8592777526080237</v>
+        <v>0.7262739871945978</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9591292832893767</v>
+        <v>1.927422391575104</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7266795478347404</v>
+        <v>1.196863420381571</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9793514605540632</v>
+        <v>1.388316387418626</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.285738328517817</v>
+        <v>0.2800346519891485</v>
       </c>
       <c r="C92" t="n">
-        <v>1.410790175996922</v>
+        <v>0.4046044533782123</v>
       </c>
       <c r="D92" t="n">
-        <v>1.51186584342587</v>
+        <v>0.5291830042519776</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.113679234932714</v>
+        <v>0.2832351919377424</v>
       </c>
       <c r="C93" t="n">
-        <v>1.65572028173364</v>
+        <v>0.4452103069182368</v>
       </c>
       <c r="D93" t="n">
-        <v>1.764562051879365</v>
+        <v>0.5321984516491404</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5801281768327499</v>
+        <v>0.262287839800854</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6570537102136303</v>
+        <v>0.4170595398468587</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7616614581510278</v>
+        <v>0.5121404492918461</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3065565213622055</v>
+        <v>0.4602236427510478</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4350902531086571</v>
+        <v>0.5676363491029116</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5536754657398191</v>
+        <v>0.6783978499015514</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.679928830603792</v>
+        <v>0.5221972127703668</v>
       </c>
       <c r="C96" t="n">
-        <v>2.293261915858755</v>
+        <v>0.6166189688793915</v>
       </c>
       <c r="D96" t="n">
-        <v>2.383260126508181</v>
+        <v>0.72263214208224</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.567951321239183</v>
+        <v>0.3798718938950676</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08283300538812</v>
+        <v>0.5000506278411774</v>
       </c>
       <c r="D97" t="n">
-        <v>1.252178629924334</v>
+        <v>0.6163374837660514</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4145592879288555</v>
+        <v>0.2446430398378185</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5452982842812057</v>
+        <v>0.3907540672186547</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6438627865693556</v>
+        <v>0.4946140311776633</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.505588462327009</v>
+        <v>0.8645417570903265</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5369009701925824</v>
+        <v>0.7552965519913596</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7110474402787827</v>
+        <v>0.9298073763368015</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2549277419797779</v>
+        <v>0.2897641555362023</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4082100312754037</v>
+        <v>0.4025598688203122</v>
       </c>
       <c r="D100" t="n">
-        <v>0.504903695747791</v>
+        <v>0.5382974600870808</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1841199105996099</v>
+        <v>0.3496308537500284</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3343178772371505</v>
+        <v>0.4919421991390139</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4290919605394744</v>
+        <v>0.5912959104797093</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4593672832326101</v>
+        <v>0.4677249365276809</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5084583291327476</v>
+        <v>0.5406548687318224</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6777663928173262</v>
+        <v>0.6839041866575177</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.254941910619387</v>
+        <v>0.303022644381889</v>
       </c>
       <c r="C103" t="n">
-        <v>1.010242853227641</v>
+        <v>0.4503576173611185</v>
       </c>
       <c r="D103" t="n">
-        <v>1.120241898260991</v>
+        <v>0.5504749262063523</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6470901826402413</v>
+        <v>0.1739930895934455</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6948488782774168</v>
+        <v>0.3394869289637621</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8044191585487266</v>
+        <v>0.4171247889941875</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.214650069548292</v>
+        <v>0.3656254818271092</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9947274919514634</v>
+        <v>0.5079146012892157</v>
       </c>
       <c r="D105" t="n">
-        <v>1.102111641145439</v>
+        <v>0.604669729544244</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.190712454893282</v>
+        <v>0.9071906012586904</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8787641434718034</v>
+        <v>0.7609060238474679</v>
       </c>
       <c r="D106" t="n">
-        <v>1.091197715766158</v>
+        <v>0.9524655380950486</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2230193694346858</v>
+        <v>0.7893420048495702</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3878106668724641</v>
+        <v>0.7756598096930666</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4722492662087319</v>
+        <v>0.8884492134329177</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1192010541801385</v>
+        <v>0.3273336514438235</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2723946283657062</v>
+        <v>0.4802436618097466</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3452550567046608</v>
+        <v>0.5721307992442144</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2700400831050517</v>
+        <v>0.5323494227374893</v>
       </c>
       <c r="C109" t="n">
-        <v>0.405477205362373</v>
+        <v>0.5928959369572152</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5196538108251028</v>
+        <v>0.7296227948313356</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1978068906473419</v>
+        <v>0.3440209805630318</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3396884707120137</v>
+        <v>0.4686898462072364</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4447548657938908</v>
+        <v>0.5865330174534353</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2629889208602842</v>
+        <v>0.3793300281653355</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4080204356981272</v>
+        <v>0.4945342066408531</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5128244542338871</v>
+        <v>0.6158977416465622</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.674808849148525</v>
+        <v>0.5036135374108547</v>
       </c>
       <c r="C112" t="n">
-        <v>1.123283494389919</v>
+        <v>0.5748353287992046</v>
       </c>
       <c r="D112" t="n">
-        <v>1.29414406043088</v>
+        <v>0.7096573380236794</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.317435163186503</v>
+        <v>1.683685568441253</v>
       </c>
       <c r="C113" t="n">
-        <v>1.305497351696189</v>
+        <v>0.9907317104480906</v>
       </c>
       <c r="D113" t="n">
-        <v>1.522312439411339</v>
+        <v>1.297569099678801</v>
       </c>
     </row>
   </sheetData>
